--- a/Users Loads3.xlsx
+++ b/Users Loads3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.827708157558062</v>
+        <v>7.968302523621997</v>
       </c>
       <c r="C2" t="n">
-        <v>5.014860205057679</v>
+        <v>6.454292139541824</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5332945627175774</v>
+        <v>0.4494569213310362</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.46984380748474</v>
+        <v>9.252023311640137</v>
       </c>
       <c r="C3" t="n">
-        <v>6.051607816293273</v>
+        <v>6.282854970324147</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2356898685612659</v>
+        <v>0.3266853406745545</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.840887543004333</v>
+        <v>15.47387749417902</v>
       </c>
       <c r="C4" t="n">
-        <v>2.564320491852837</v>
+        <v>9.814980236431094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1795478475475196</v>
+        <v>0.5064586430414989</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.917385904656313</v>
+        <v>15.76923965739471</v>
       </c>
       <c r="C5" t="n">
-        <v>4.234691102598138</v>
+        <v>11.76779120894568</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3959285115579564</v>
+        <v>0.3604445882999941</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.106722416365751</v>
+        <v>19.50032959794995</v>
       </c>
       <c r="C6" t="n">
-        <v>4.648856873468151</v>
+        <v>5.384490624648259</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4946634700906354</v>
+        <v>0.1994159906107115</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.824187955953239</v>
+        <v>23.64428567371602</v>
       </c>
       <c r="C7" t="n">
-        <v>2.897211677871603</v>
+        <v>10.72708028679793</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2910873667167592</v>
+        <v>0.4874454531970882</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.90396813315925</v>
+        <v>24.79581714028404</v>
       </c>
       <c r="C8" t="n">
-        <v>5.903196242863708</v>
+        <v>6.11435447822662</v>
       </c>
       <c r="D8" t="n">
-        <v>0.708804619872184</v>
+        <v>0.1097164019370322</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.26879312436758</v>
+        <v>29.1178153016956</v>
       </c>
       <c r="C9" t="n">
-        <v>5.231191237336261</v>
+        <v>1.659738961791062</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7402545398416627</v>
+        <v>0.149368883682171</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.38172488778467</v>
+        <v>29.89439917752741</v>
       </c>
       <c r="C10" t="n">
-        <v>3.154670545676799</v>
+        <v>1.817738868631651</v>
       </c>
       <c r="D10" t="n">
-        <v>0.382576891461114</v>
+        <v>0.1617671317029675</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.55168393597797</v>
+        <v>30.85529943446785</v>
       </c>
       <c r="C11" t="n">
-        <v>4.979123989537056</v>
+        <v>6.885633477717436</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3391179366337129</v>
+        <v>0.458006571178864</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18.41258875764177</v>
+        <v>33.16401428388629</v>
       </c>
       <c r="C12" t="n">
-        <v>2.654113470914058</v>
+        <v>9.730232403613652</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1508757059356809</v>
+        <v>0.3297553382756093</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.50901392883123</v>
+        <v>38.76031647558236</v>
       </c>
       <c r="C13" t="n">
-        <v>4.6726927890288</v>
+        <v>5.603799047899812</v>
       </c>
       <c r="D13" t="n">
-        <v>0.459149378158828</v>
+        <v>0.170441410581006</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.08907636257492</v>
+        <v>39.55115305736447</v>
       </c>
       <c r="C14" t="n">
-        <v>4.346021517172098</v>
+        <v>4.761553316583797</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4237905744152878</v>
+        <v>0.3709903827184871</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.09746883965053</v>
+        <v>39.80777509365937</v>
       </c>
       <c r="C15" t="n">
-        <v>5.565242093741457</v>
+        <v>2.481549901860521</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5266527026559314</v>
+        <v>0.2267831297300842</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21.75425215819414</v>
+        <v>42.55025702836069</v>
       </c>
       <c r="C16" t="n">
-        <v>7.054129030309166</v>
+        <v>5.717292976747705</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5304806260730385</v>
+        <v>0.1704305368469851</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23.73790195785881</v>
+        <v>43.59626178713856</v>
       </c>
       <c r="C17" t="n">
-        <v>5.242031613962057</v>
+        <v>4.830041604347083</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6286347128982939</v>
+        <v>0.266305255286413</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.13873550103987</v>
+        <v>44.94200099836099</v>
       </c>
       <c r="C18" t="n">
-        <v>2.844557760983054</v>
+        <v>7.963160917770097</v>
       </c>
       <c r="D18" t="n">
-        <v>0.399906912720918</v>
+        <v>0.298947873568302</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>24.38735318874178</v>
+        <v>45.04916448941072</v>
       </c>
       <c r="C19" t="n">
-        <v>5.264190044272539</v>
+        <v>10.12291259201468</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3644225401071427</v>
+        <v>0.5347785275628767</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25.00278542825265</v>
+        <v>45.31982797353774</v>
       </c>
       <c r="C20" t="n">
-        <v>5.698624690518496</v>
+        <v>9.855805370637492</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7345922103831241</v>
+        <v>0.5116685137033247</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29.78436310613337</v>
+        <v>48.94323866682335</v>
       </c>
       <c r="C21" t="n">
-        <v>6.460434817588609</v>
+        <v>2.836217830172435</v>
       </c>
       <c r="D21" t="n">
-        <v>0.551416172455821</v>
+        <v>0.1145085366686621</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>30.1634479590746</v>
+        <v>50.67958651947914</v>
       </c>
       <c r="C22" t="n">
-        <v>8.128492061548958</v>
+        <v>3.33035982386281</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5750872312217318</v>
+        <v>0.2544598249290058</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>33.78009467120599</v>
+        <v>51.03266627335613</v>
       </c>
       <c r="C23" t="n">
-        <v>3.846854323769466</v>
+        <v>7.284504316992748</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5713631254502375</v>
+        <v>0.3414084458327378</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>35.82995334335573</v>
+        <v>52.82347157906169</v>
       </c>
       <c r="C24" t="n">
-        <v>6.320456179750765</v>
+        <v>6.138703008276933</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4193738991475918</v>
+        <v>0.3002420691404664</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40.37929510429593</v>
+        <v>56.43652450032327</v>
       </c>
       <c r="C25" t="n">
-        <v>4.313930793162619</v>
+        <v>2.147670259618144</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7506571162773771</v>
+        <v>0.1981006634022969</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.43491676261734</v>
+        <v>59.42789561338819</v>
       </c>
       <c r="C26" t="n">
-        <v>2.470355939502267</v>
+        <v>3.672904247438154</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4030634005721656</v>
+        <v>0.142496811888341</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>44.83504230840749</v>
+        <v>68.77260594170538</v>
       </c>
       <c r="C27" t="n">
-        <v>3.467861693751403</v>
+        <v>4.258527393176168</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3200012524448601</v>
+        <v>0.2764380447449578</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>46.91176009660132</v>
+        <v>70.76210084893634</v>
       </c>
       <c r="C28" t="n">
-        <v>4.042443439638472</v>
+        <v>10.26659091204358</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2322673517745666</v>
+        <v>0.4706126687254231</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>47.90761694504776</v>
+        <v>72.26488238377407</v>
       </c>
       <c r="C29" t="n">
-        <v>1.902017607220391</v>
+        <v>8.409295892964687</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3507021560725013</v>
+        <v>0.3180953487505732</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>48.58050414435632</v>
+        <v>77.07379352407794</v>
       </c>
       <c r="C30" t="n">
-        <v>3.600388622248984</v>
+        <v>7.134848649913564</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2099540108995424</v>
+        <v>0.4226524432963901</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>48.68669791445223</v>
+        <v>77.16439074120886</v>
       </c>
       <c r="C31" t="n">
-        <v>8.928796607323587</v>
+        <v>6.906978970784561</v>
       </c>
       <c r="D31" t="n">
-        <v>0.549070347709285</v>
+        <v>0.4231461087209499</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>50.94770781204159</v>
+        <v>77.49481543064121</v>
       </c>
       <c r="C32" t="n">
-        <v>4.13924804237866</v>
+        <v>5.272611471757612</v>
       </c>
       <c r="D32" t="n">
-        <v>0.834354360367968</v>
+        <v>0.2038596968604078</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55.36586490388415</v>
+        <v>82.80882213946811</v>
       </c>
       <c r="C33" t="n">
-        <v>1.274185102403821</v>
+        <v>6.870244475330873</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1624706310065687</v>
+        <v>0.4672303418946005</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>58.11108996918928</v>
+        <v>84.10681411513478</v>
       </c>
       <c r="C34" t="n">
-        <v>3.444112613640512</v>
+        <v>4.797851332576321</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1314428491512274</v>
+        <v>0.5223145034175196</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>61.33402490216564</v>
+        <v>87.24448915556917</v>
       </c>
       <c r="C35" t="n">
-        <v>6.446078319787518</v>
+        <v>7.749948912980603</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5288406953377401</v>
+        <v>0.4518081259672308</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>61.97167594070481</v>
+        <v>94.02970406975554</v>
       </c>
       <c r="C36" t="n">
-        <v>3.657843582894447</v>
+        <v>1.837574382007818</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6146900368986433</v>
+        <v>0.3558148478581901</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>65.44801031396271</v>
+        <v>94.66941399940016</v>
       </c>
       <c r="C37" t="n">
-        <v>2.569467337872387</v>
+        <v>9.023905547582514</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3248854306562575</v>
+        <v>0.4101601644347047</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>65.8169593123618</v>
+        <v>96.83543765651322</v>
       </c>
       <c r="C38" t="n">
-        <v>5.48512697431768</v>
+        <v>2.11129436627449</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8144732532555227</v>
+        <v>0.3211267499499247</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>65.96314399534506</v>
+        <v>97.57618033801869</v>
       </c>
       <c r="C39" t="n">
-        <v>6.096115688033134</v>
+        <v>4.155580806150788</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4908075862132979</v>
+        <v>0.1593040422889569</v>
       </c>
     </row>
     <row r="40">
@@ -987,209 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>74.88701398252624</v>
+        <v>97.89032214815171</v>
       </c>
       <c r="C40" t="n">
-        <v>5.65168915458317</v>
+        <v>2.057447036649141</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4411262845420031</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>75.13694567159156</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2.111978894889306</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.4140754041996528</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>77.03928761016653</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2.20268916744419</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.4481051678084355</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>81.00509970815774</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4.706331835270085</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.7782895889790067</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>84.95662792906404</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4.589613714591388</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5801433083858129</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>85.02325945421231</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.705593518325122</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.1330894544824525</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>85.90698349441207</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4.732443428189268</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.510185461378915</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>86.50589534106308</v>
-      </c>
-      <c r="C47" t="n">
-        <v>4.387129367849117</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.5383149221535459</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>86.84421056163035</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.136642541155465</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.2803513398127869</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>88.14502915230288</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.909148125626031</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.3720260370744509</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>88.90354918650526</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3.751077372482961</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.4778258072470307</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>89.21794792244769</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1.758842776174085</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.2002012837155243</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>89.62741879573827</v>
-      </c>
-      <c r="C52" t="n">
-        <v>7.244620874318041</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5088684249493131</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>97.50683842162648</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1.545853638844243</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.3191159171315714</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>99.51046710903962</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2.807047276909664</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.5685929452782721</v>
+        <v>0.2003235175444442</v>
       </c>
     </row>
   </sheetData>
